--- a/Final Project/code/PCA/example.xlsx
+++ b/Final Project/code/PCA/example.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU BEBI\111-2 Course\DBMS\NTU_DBMS\Final Project\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU BEBI\111-2 Course\資料庫系統\NTU_DBMS\Final Project\code\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF37E97-3903-450B-BC6D-E2625C0655C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA50500-C097-4F89-AFED-13395218048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wine-data" sheetId="1" r:id="rId1"/>
+    <sheet name="main_sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="wine-data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Malicacid</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Alcalinity_of_ash</t>
+  </si>
+  <si>
+    <t>Total_phenols</t>
+  </si>
+  <si>
+    <t>Flavanoids</t>
+  </si>
+  <si>
+    <t>Nonflavanoid_phenols</t>
+  </si>
+  <si>
+    <t>Proanthocyanins</t>
+  </si>
+  <si>
+    <t>Color_intensity</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>0D280_0D315_of_diluted_wines</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,11 +384,1394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281972BD-7129-4758-A780-9CE99BD7DBE0}">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>14.23</v>
+      </c>
+      <c r="C2">
+        <v>1.71</v>
+      </c>
+      <c r="D2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E2">
+        <v>15.6</v>
+      </c>
+      <c r="F2">
+        <v>127</v>
+      </c>
+      <c r="G2">
+        <v>2.8</v>
+      </c>
+      <c r="H2">
+        <v>3.06</v>
+      </c>
+      <c r="I2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J2">
+        <v>2.29</v>
+      </c>
+      <c r="K2">
+        <v>5.64</v>
+      </c>
+      <c r="L2">
+        <v>1.04</v>
+      </c>
+      <c r="M2">
+        <v>3.92</v>
+      </c>
+      <c r="N2">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13.2</v>
+      </c>
+      <c r="C3">
+        <v>1.78</v>
+      </c>
+      <c r="D3">
+        <v>2.14</v>
+      </c>
+      <c r="E3">
+        <v>11.2</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>2.65</v>
+      </c>
+      <c r="H3">
+        <v>2.76</v>
+      </c>
+      <c r="I3">
+        <v>0.26</v>
+      </c>
+      <c r="J3">
+        <v>1.28</v>
+      </c>
+      <c r="K3">
+        <v>4.38</v>
+      </c>
+      <c r="L3">
+        <v>1.05</v>
+      </c>
+      <c r="M3">
+        <v>3.4</v>
+      </c>
+      <c r="N3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>13.16</v>
+      </c>
+      <c r="C4">
+        <v>2.36</v>
+      </c>
+      <c r="D4">
+        <v>2.67</v>
+      </c>
+      <c r="E4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F4">
+        <v>101</v>
+      </c>
+      <c r="G4">
+        <v>2.8</v>
+      </c>
+      <c r="H4">
+        <v>3.24</v>
+      </c>
+      <c r="I4">
+        <v>0.3</v>
+      </c>
+      <c r="J4">
+        <v>2.81</v>
+      </c>
+      <c r="K4">
+        <v>5.68</v>
+      </c>
+      <c r="L4">
+        <v>1.03</v>
+      </c>
+      <c r="M4">
+        <v>3.17</v>
+      </c>
+      <c r="N4">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>14.37</v>
+      </c>
+      <c r="C5">
+        <v>1.95</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <v>16.8</v>
+      </c>
+      <c r="F5">
+        <v>113</v>
+      </c>
+      <c r="G5">
+        <v>3.85</v>
+      </c>
+      <c r="H5">
+        <v>3.49</v>
+      </c>
+      <c r="I5">
+        <v>0.24</v>
+      </c>
+      <c r="J5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K5">
+        <v>7.8</v>
+      </c>
+      <c r="L5">
+        <v>0.86</v>
+      </c>
+      <c r="M5">
+        <v>3.45</v>
+      </c>
+      <c r="N5">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>13.24</v>
+      </c>
+      <c r="C6">
+        <v>2.59</v>
+      </c>
+      <c r="D6">
+        <v>2.87</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>118</v>
+      </c>
+      <c r="G6">
+        <v>2.8</v>
+      </c>
+      <c r="H6">
+        <v>2.69</v>
+      </c>
+      <c r="I6">
+        <v>0.39</v>
+      </c>
+      <c r="J6">
+        <v>1.82</v>
+      </c>
+      <c r="K6">
+        <v>4.32</v>
+      </c>
+      <c r="L6">
+        <v>1.04</v>
+      </c>
+      <c r="M6">
+        <v>2.93</v>
+      </c>
+      <c r="N6">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>14.2</v>
+      </c>
+      <c r="C7">
+        <v>1.76</v>
+      </c>
+      <c r="D7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E7">
+        <v>15.2</v>
+      </c>
+      <c r="F7">
+        <v>112</v>
+      </c>
+      <c r="G7">
+        <v>3.27</v>
+      </c>
+      <c r="H7">
+        <v>3.39</v>
+      </c>
+      <c r="I7">
+        <v>0.34</v>
+      </c>
+      <c r="J7">
+        <v>1.97</v>
+      </c>
+      <c r="K7">
+        <v>6.75</v>
+      </c>
+      <c r="L7">
+        <v>1.05</v>
+      </c>
+      <c r="M7">
+        <v>2.85</v>
+      </c>
+      <c r="N7">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>14.39</v>
+      </c>
+      <c r="C8">
+        <v>1.87</v>
+      </c>
+      <c r="D8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E8">
+        <v>14.6</v>
+      </c>
+      <c r="F8">
+        <v>96</v>
+      </c>
+      <c r="G8">
+        <v>2.5</v>
+      </c>
+      <c r="H8">
+        <v>2.52</v>
+      </c>
+      <c r="I8">
+        <v>0.3</v>
+      </c>
+      <c r="J8">
+        <v>1.98</v>
+      </c>
+      <c r="K8">
+        <v>5.25</v>
+      </c>
+      <c r="L8">
+        <v>1.02</v>
+      </c>
+      <c r="M8">
+        <v>3.58</v>
+      </c>
+      <c r="N8">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>14.06</v>
+      </c>
+      <c r="C9">
+        <v>2.15</v>
+      </c>
+      <c r="D9">
+        <v>2.61</v>
+      </c>
+      <c r="E9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F9">
+        <v>121</v>
+      </c>
+      <c r="G9">
+        <v>2.6</v>
+      </c>
+      <c r="H9">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.31</v>
+      </c>
+      <c r="J9">
+        <v>1.25</v>
+      </c>
+      <c r="K9">
+        <v>5.05</v>
+      </c>
+      <c r="L9">
+        <v>1.06</v>
+      </c>
+      <c r="M9">
+        <v>3.58</v>
+      </c>
+      <c r="N9">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>14.83</v>
+      </c>
+      <c r="C10">
+        <v>1.64</v>
+      </c>
+      <c r="D10">
+        <v>2.17</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>97</v>
+      </c>
+      <c r="G10">
+        <v>2.8</v>
+      </c>
+      <c r="H10">
+        <v>2.98</v>
+      </c>
+      <c r="I10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J10">
+        <v>1.98</v>
+      </c>
+      <c r="K10">
+        <v>5.2</v>
+      </c>
+      <c r="L10">
+        <v>1.08</v>
+      </c>
+      <c r="M10">
+        <v>2.85</v>
+      </c>
+      <c r="N10">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>13.86</v>
+      </c>
+      <c r="C11">
+        <v>1.35</v>
+      </c>
+      <c r="D11">
+        <v>2.27</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>98</v>
+      </c>
+      <c r="G11">
+        <v>2.98</v>
+      </c>
+      <c r="H11">
+        <v>3.15</v>
+      </c>
+      <c r="I11">
+        <v>0.22</v>
+      </c>
+      <c r="J11">
+        <v>1.85</v>
+      </c>
+      <c r="K11">
+        <v>7.22</v>
+      </c>
+      <c r="L11">
+        <v>1.01</v>
+      </c>
+      <c r="M11">
+        <v>3.55</v>
+      </c>
+      <c r="N11">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>12.37</v>
+      </c>
+      <c r="C12">
+        <v>0.94</v>
+      </c>
+      <c r="D12">
+        <v>1.36</v>
+      </c>
+      <c r="E12">
+        <v>10.6</v>
+      </c>
+      <c r="F12">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>1.98</v>
+      </c>
+      <c r="H12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J12">
+        <v>0.42</v>
+      </c>
+      <c r="K12">
+        <v>1.95</v>
+      </c>
+      <c r="L12">
+        <v>1.05</v>
+      </c>
+      <c r="M12">
+        <v>1.82</v>
+      </c>
+      <c r="N12">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12.33</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>101</v>
+      </c>
+      <c r="G13">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H13">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.63</v>
+      </c>
+      <c r="J13">
+        <v>0.41</v>
+      </c>
+      <c r="K13">
+        <v>3.27</v>
+      </c>
+      <c r="L13">
+        <v>1.25</v>
+      </c>
+      <c r="M13">
+        <v>1.67</v>
+      </c>
+      <c r="N13">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>12.64</v>
+      </c>
+      <c r="C14">
+        <v>1.36</v>
+      </c>
+      <c r="D14">
+        <v>2.02</v>
+      </c>
+      <c r="E14">
+        <v>16.8</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>2.02</v>
+      </c>
+      <c r="H14">
+        <v>1.41</v>
+      </c>
+      <c r="I14">
+        <v>0.53</v>
+      </c>
+      <c r="J14">
+        <v>0.62</v>
+      </c>
+      <c r="K14">
+        <v>5.75</v>
+      </c>
+      <c r="L14">
+        <v>0.98</v>
+      </c>
+      <c r="M14">
+        <v>1.59</v>
+      </c>
+      <c r="N14">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>13.67</v>
+      </c>
+      <c r="C15">
+        <v>1.25</v>
+      </c>
+      <c r="D15">
+        <v>1.92</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>94</v>
+      </c>
+      <c r="G15">
+        <v>2.1</v>
+      </c>
+      <c r="H15">
+        <v>1.79</v>
+      </c>
+      <c r="I15">
+        <v>0.32</v>
+      </c>
+      <c r="J15">
+        <v>0.73</v>
+      </c>
+      <c r="K15">
+        <v>3.8</v>
+      </c>
+      <c r="L15">
+        <v>1.23</v>
+      </c>
+      <c r="M15">
+        <v>2.46</v>
+      </c>
+      <c r="N15">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>12.37</v>
+      </c>
+      <c r="C16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D16">
+        <v>2.16</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>87</v>
+      </c>
+      <c r="G16">
+        <v>3.5</v>
+      </c>
+      <c r="H16">
+        <v>3.1</v>
+      </c>
+      <c r="I16">
+        <v>0.19</v>
+      </c>
+      <c r="J16">
+        <v>1.87</v>
+      </c>
+      <c r="K16">
+        <v>4.45</v>
+      </c>
+      <c r="L16">
+        <v>1.22</v>
+      </c>
+      <c r="M16">
+        <v>2.87</v>
+      </c>
+      <c r="N16">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>12.17</v>
+      </c>
+      <c r="C17">
+        <v>1.45</v>
+      </c>
+      <c r="D17">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>104</v>
+      </c>
+      <c r="G17">
+        <v>1.89</v>
+      </c>
+      <c r="H17">
+        <v>1.75</v>
+      </c>
+      <c r="I17">
+        <v>0.45</v>
+      </c>
+      <c r="J17">
+        <v>1.03</v>
+      </c>
+      <c r="K17">
+        <v>2.95</v>
+      </c>
+      <c r="L17">
+        <v>1.45</v>
+      </c>
+      <c r="M17">
+        <v>2.23</v>
+      </c>
+      <c r="N17">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>12.37</v>
+      </c>
+      <c r="C18">
+        <v>1.21</v>
+      </c>
+      <c r="D18">
+        <v>2.56</v>
+      </c>
+      <c r="E18">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F18">
+        <v>98</v>
+      </c>
+      <c r="G18">
+        <v>2.42</v>
+      </c>
+      <c r="H18">
+        <v>2.65</v>
+      </c>
+      <c r="I18">
+        <v>0.37</v>
+      </c>
+      <c r="J18">
+        <v>2.08</v>
+      </c>
+      <c r="K18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L18">
+        <v>1.19</v>
+      </c>
+      <c r="M18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N18">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>13.11</v>
+      </c>
+      <c r="C19">
+        <v>1.01</v>
+      </c>
+      <c r="D19">
+        <v>1.7</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>78</v>
+      </c>
+      <c r="G19">
+        <v>2.98</v>
+      </c>
+      <c r="H19">
+        <v>3.18</v>
+      </c>
+      <c r="I19">
+        <v>0.26</v>
+      </c>
+      <c r="J19">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K19">
+        <v>5.3</v>
+      </c>
+      <c r="L19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M19">
+        <v>3.18</v>
+      </c>
+      <c r="N19">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>12.37</v>
+      </c>
+      <c r="C20">
+        <v>1.17</v>
+      </c>
+      <c r="D20">
+        <v>1.92</v>
+      </c>
+      <c r="E20">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F20">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>2.11</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0.27</v>
+      </c>
+      <c r="J20">
+        <v>1.04</v>
+      </c>
+      <c r="K20">
+        <v>4.68</v>
+      </c>
+      <c r="L20">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M20">
+        <v>3.48</v>
+      </c>
+      <c r="N20">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>13.34</v>
+      </c>
+      <c r="C21">
+        <v>0.94</v>
+      </c>
+      <c r="D21">
+        <v>2.36</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>110</v>
+      </c>
+      <c r="G21">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H21">
+        <v>1.3</v>
+      </c>
+      <c r="I21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J21">
+        <v>0.42</v>
+      </c>
+      <c r="K21">
+        <v>3.17</v>
+      </c>
+      <c r="L21">
+        <v>1.02</v>
+      </c>
+      <c r="M21">
+        <v>1.93</v>
+      </c>
+      <c r="N21">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>12.86</v>
+      </c>
+      <c r="C22">
+        <v>1.35</v>
+      </c>
+      <c r="D22">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>122</v>
+      </c>
+      <c r="G22">
+        <v>1.51</v>
+      </c>
+      <c r="H22">
+        <v>1.25</v>
+      </c>
+      <c r="I22">
+        <v>0.21</v>
+      </c>
+      <c r="J22">
+        <v>0.94</v>
+      </c>
+      <c r="K22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L22">
+        <v>0.76</v>
+      </c>
+      <c r="M22">
+        <v>1.29</v>
+      </c>
+      <c r="N22">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>12.88</v>
+      </c>
+      <c r="C23">
+        <v>2.99</v>
+      </c>
+      <c r="D23">
+        <v>2.4</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>104</v>
+      </c>
+      <c r="G23">
+        <v>1.3</v>
+      </c>
+      <c r="H23">
+        <v>1.22</v>
+      </c>
+      <c r="I23">
+        <v>0.24</v>
+      </c>
+      <c r="J23">
+        <v>0.83</v>
+      </c>
+      <c r="K23">
+        <v>5.4</v>
+      </c>
+      <c r="L23">
+        <v>0.74</v>
+      </c>
+      <c r="M23">
+        <v>1.42</v>
+      </c>
+      <c r="N23">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>12.81</v>
+      </c>
+      <c r="C24">
+        <v>2.31</v>
+      </c>
+      <c r="D24">
+        <v>2.4</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>98</v>
+      </c>
+      <c r="G24">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.27</v>
+      </c>
+      <c r="J24">
+        <v>0.83</v>
+      </c>
+      <c r="K24">
+        <v>5.7</v>
+      </c>
+      <c r="L24">
+        <v>0.66</v>
+      </c>
+      <c r="M24">
+        <v>1.36</v>
+      </c>
+      <c r="N24">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>12.7</v>
+      </c>
+      <c r="C25">
+        <v>3.55</v>
+      </c>
+      <c r="D25">
+        <v>2.36</v>
+      </c>
+      <c r="E25">
+        <v>21.5</v>
+      </c>
+      <c r="F25">
+        <v>106</v>
+      </c>
+      <c r="G25">
+        <v>1.7</v>
+      </c>
+      <c r="H25">
+        <v>1.2</v>
+      </c>
+      <c r="I25">
+        <v>0.17</v>
+      </c>
+      <c r="J25">
+        <v>0.84</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>0.78</v>
+      </c>
+      <c r="M25">
+        <v>1.29</v>
+      </c>
+      <c r="N25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>12.51</v>
+      </c>
+      <c r="C26">
+        <v>1.24</v>
+      </c>
+      <c r="D26">
+        <v>2.25</v>
+      </c>
+      <c r="E26">
+        <v>17.5</v>
+      </c>
+      <c r="F26">
+        <v>85</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I26">
+        <v>0.6</v>
+      </c>
+      <c r="J26">
+        <v>1.25</v>
+      </c>
+      <c r="K26">
+        <v>5.45</v>
+      </c>
+      <c r="L26">
+        <v>0.75</v>
+      </c>
+      <c r="M26">
+        <v>1.51</v>
+      </c>
+      <c r="N26">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>12.6</v>
+      </c>
+      <c r="C27">
+        <v>2.46</v>
+      </c>
+      <c r="D27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E27">
+        <v>18.5</v>
+      </c>
+      <c r="F27">
+        <v>94</v>
+      </c>
+      <c r="G27">
+        <v>1.62</v>
+      </c>
+      <c r="H27">
+        <v>0.66</v>
+      </c>
+      <c r="I27">
+        <v>0.63</v>
+      </c>
+      <c r="J27">
+        <v>0.94</v>
+      </c>
+      <c r="K27">
+        <v>7.1</v>
+      </c>
+      <c r="L27">
+        <v>0.73</v>
+      </c>
+      <c r="M27">
+        <v>1.58</v>
+      </c>
+      <c r="N27">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>12.25</v>
+      </c>
+      <c r="C28">
+        <v>4.72</v>
+      </c>
+      <c r="D28">
+        <v>2.54</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>89</v>
+      </c>
+      <c r="G28">
+        <v>1.38</v>
+      </c>
+      <c r="H28">
+        <v>0.47</v>
+      </c>
+      <c r="I28">
+        <v>0.53</v>
+      </c>
+      <c r="J28">
+        <v>0.8</v>
+      </c>
+      <c r="K28">
+        <v>3.85</v>
+      </c>
+      <c r="L28">
+        <v>0.75</v>
+      </c>
+      <c r="M28">
+        <v>1.27</v>
+      </c>
+      <c r="N28">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>12.53</v>
+      </c>
+      <c r="C29">
+        <v>5.51</v>
+      </c>
+      <c r="D29">
+        <v>2.64</v>
+      </c>
+      <c r="E29">
+        <v>25</v>
+      </c>
+      <c r="F29">
+        <v>96</v>
+      </c>
+      <c r="G29">
+        <v>1.79</v>
+      </c>
+      <c r="H29">
+        <v>0.6</v>
+      </c>
+      <c r="I29">
+        <v>0.63</v>
+      </c>
+      <c r="J29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>0.82</v>
+      </c>
+      <c r="M29">
+        <v>1.69</v>
+      </c>
+      <c r="N29">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>13.49</v>
+      </c>
+      <c r="C30">
+        <v>3.59</v>
+      </c>
+      <c r="D30">
+        <v>2.19</v>
+      </c>
+      <c r="E30">
+        <v>19.5</v>
+      </c>
+      <c r="F30">
+        <v>88</v>
+      </c>
+      <c r="G30">
+        <v>1.62</v>
+      </c>
+      <c r="H30">
+        <v>0.48</v>
+      </c>
+      <c r="I30">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J30">
+        <v>0.88</v>
+      </c>
+      <c r="K30">
+        <v>5.7</v>
+      </c>
+      <c r="L30">
+        <v>0.81</v>
+      </c>
+      <c r="M30">
+        <v>1.82</v>
+      </c>
+      <c r="N30">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>12.84</v>
+      </c>
+      <c r="C31">
+        <v>2.96</v>
+      </c>
+      <c r="D31">
+        <v>2.61</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>101</v>
+      </c>
+      <c r="G31">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H31">
+        <v>0.6</v>
+      </c>
+      <c r="I31">
+        <v>0.53</v>
+      </c>
+      <c r="J31">
+        <v>0.81</v>
+      </c>
+      <c r="K31">
+        <v>4.92</v>
+      </c>
+      <c r="L31">
+        <v>0.89</v>
+      </c>
+      <c r="M31">
+        <v>2.15</v>
+      </c>
+      <c r="N31">
+        <v>590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
